--- a/data/trans_dic/P05B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P05B_R-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.02059594541354024</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.01810162804884631</v>
+        <v>0.0181016280488463</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02123756298843473</v>
+        <v>0.02059867134115588</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00795131956146929</v>
+        <v>0.008191353736144507</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006835770394016208</v>
+        <v>0.00727419061310706</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01183069737421698</v>
+        <v>0.01203774765635207</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04042553748240663</v>
+        <v>0.04077796562694047</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.007555391135364162</v>
+        <v>0.007426542769529393</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01769302178959916</v>
+        <v>0.01693168119588716</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01009090159871907</v>
+        <v>0.01052330991292201</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03525128475188482</v>
+        <v>0.03481852926389994</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.009684488501009982</v>
+        <v>0.009380579055290664</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0142830993686969</v>
+        <v>0.01455599377577751</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01283000681224214</v>
+        <v>0.01292323410000469</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04292399472960913</v>
+        <v>0.04105109981496538</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02375958801006736</v>
+        <v>0.02489042754717516</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02300486291535393</v>
+        <v>0.02467668006529732</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03539090584964935</v>
+        <v>0.03609863341816318</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06512435577971175</v>
+        <v>0.06502229165194591</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02122743826596759</v>
+        <v>0.02101815367164525</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0405663683141043</v>
+        <v>0.03753739715205339</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02410392065539522</v>
+        <v>0.0252124541008637</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05170967975317079</v>
+        <v>0.05045427161432169</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01943451729970169</v>
+        <v>0.01930417252064998</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02795095080219293</v>
+        <v>0.02858043848123885</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02524225644082734</v>
+        <v>0.02575670349042228</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.01731819737005565</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.008013237676018152</v>
+        <v>0.008013237676018154</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02068667746946531</v>
+        <v>0.02120992759757788</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01079520969708115</v>
+        <v>0.01048400504577333</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008922942600616547</v>
+        <v>0.009461012036436329</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003038888066302847</v>
+        <v>0.002898641806882221</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0355337632369585</v>
+        <v>0.03451323342437247</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01404378508465256</v>
+        <v>0.0142228147070323</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01510707026259262</v>
+        <v>0.01477983381932061</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.006886450651026646</v>
+        <v>0.00691431443553621</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03011630828363397</v>
+        <v>0.03015798907426655</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01406895337003386</v>
+        <v>0.01404322766095406</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01376976730285712</v>
+        <v>0.01351988758254552</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.005809114581003749</v>
+        <v>0.005690747235637665</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03765173093588493</v>
+        <v>0.03789944122728141</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02333580161894267</v>
+        <v>0.02282612926677344</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02052759216102425</v>
+        <v>0.02060249767403889</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01049432989389389</v>
+        <v>0.01004954131542848</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0576572444109586</v>
+        <v>0.05495587847815269</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02849027257838509</v>
+        <v>0.02831838494817837</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02807850153812144</v>
+        <v>0.0279840058375921</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01479184069240916</v>
+        <v>0.01465106846091351</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04350104085638649</v>
+        <v>0.0433318952592878</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02349460759324841</v>
+        <v>0.02305953536582084</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02202293950634989</v>
+        <v>0.02203532039445441</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01114409378100167</v>
+        <v>0.01103721219031335</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01795146813911159</v>
+        <v>0.01790283524122226</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01136790058433957</v>
+        <v>0.0113277561589055</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003881493606806534</v>
+        <v>0.003531304864376499</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.009445624775992431</v>
+        <v>0.01003699792732429</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02620276103100788</v>
+        <v>0.02625675704718058</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.003937602425822117</v>
+        <v>0.003996572046920708</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.007555706124677554</v>
+        <v>0.007728146684875979</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01008015828433012</v>
+        <v>0.009305249974779994</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02491440582517376</v>
+        <v>0.02579280133060292</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01012601085634046</v>
+        <v>0.009554940585594042</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.00767681922292595</v>
+        <v>0.007816491634304482</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01112379765747268</v>
+        <v>0.01153655585989925</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04847180623077559</v>
+        <v>0.04836669418481714</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04512793035319757</v>
+        <v>0.04115799856286859</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02789032951430057</v>
+        <v>0.02743713605719722</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0325662333870525</v>
+        <v>0.03404734999831738</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06495571139591301</v>
+        <v>0.06485847434478369</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02381330972506913</v>
+        <v>0.02307082846890259</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03112382308290164</v>
+        <v>0.03069713701817117</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02717094787068561</v>
+        <v>0.02781943250426661</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05104928141044855</v>
+        <v>0.04981577863564828</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02748665321154771</v>
+        <v>0.02729115265936824</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02443671318173889</v>
+        <v>0.02384785801426921</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0263946197158041</v>
+        <v>0.02554418470604987</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02386214542493052</v>
+        <v>0.02390753992748186</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01254196115094401</v>
+        <v>0.01252896231297756</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009959693718897655</v>
+        <v>0.009987853244617968</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.007608866089342949</v>
+        <v>0.007501712038904944</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03971732864200321</v>
+        <v>0.04007718174581351</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01277753543972673</v>
+        <v>0.01234785898777916</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01693878976941877</v>
+        <v>0.01702017762801242</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.009975747445926929</v>
+        <v>0.009748758305053246</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0340387241217887</v>
+        <v>0.03386111568779577</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01351785012221328</v>
+        <v>0.01344464384750254</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01439537492284309</v>
+        <v>0.01425204106030313</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.009575566272443875</v>
+        <v>0.009588030205970856</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03560572440267813</v>
+        <v>0.03636472077989468</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02262884163925412</v>
+        <v>0.02180636702866205</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01883469568728235</v>
+        <v>0.01795615623474972</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0148349427282566</v>
+        <v>0.01518748523281979</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05507797816365619</v>
+        <v>0.05479194402787485</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02157700386999745</v>
+        <v>0.02083440645840327</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02698064851749185</v>
+        <v>0.02696793256768666</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01614275907386236</v>
+        <v>0.01605985994079657</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04332391961276835</v>
+        <v>0.04307990637625513</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01981959241820859</v>
+        <v>0.02003030597621676</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02164888896206499</v>
+        <v>0.02108173185436066</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01444637611813098</v>
+        <v>0.01457353672775031</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>21874</v>
+        <v>21216</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7718</v>
+        <v>7951</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5146</v>
+        <v>5476</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6796</v>
+        <v>6915</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>53164</v>
+        <v>53628</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10027</v>
+        <v>9856</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>17472</v>
+        <v>16720</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8259</v>
+        <v>8612</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>82667</v>
+        <v>81652</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>22253</v>
+        <v>21555</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>24858</v>
+        <v>25333</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>17870</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>44210</v>
+        <v>42281</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23062</v>
+        <v>24160</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17320</v>
+        <v>18578</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20329</v>
+        <v>20735</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>85646</v>
+        <v>85512</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28172</v>
+        <v>27895</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>40059</v>
+        <v>37068</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>19727</v>
+        <v>20634</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>121263</v>
+        <v>118319</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>44657</v>
+        <v>44357</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>48644</v>
+        <v>49740</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>35158</v>
+        <v>35874</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>35031</v>
+        <v>35917</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21128</v>
+        <v>20519</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18471</v>
+        <v>19585</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6774</v>
+        <v>6462</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>56358</v>
+        <v>54740</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>24614</v>
+        <v>24928</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>29934</v>
+        <v>29285</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>14932</v>
+        <v>14993</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>98765</v>
+        <v>98902</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>52193</v>
+        <v>52098</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>55788</v>
+        <v>54776</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>25546</v>
+        <v>25026</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>63760</v>
+        <v>64179</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45671</v>
+        <v>44674</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>42493</v>
+        <v>42648</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>23395</v>
+        <v>22403</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>91447</v>
+        <v>87163</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>49934</v>
+        <v>49633</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>55636</v>
+        <v>55449</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>32074</v>
+        <v>31769</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>142660</v>
+        <v>142105</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>87161</v>
+        <v>85547</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>89226</v>
+        <v>89276</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>49008</v>
+        <v>48538</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9856</v>
+        <v>9830</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5434</v>
+        <v>5415</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2119</v>
+        <v>1928</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6708</v>
+        <v>7128</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>12483</v>
+        <v>12509</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1802</v>
+        <v>1829</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4149</v>
+        <v>4244</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7381</v>
+        <v>6814</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>25549</v>
+        <v>26450</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>9475</v>
+        <v>8940</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>8407</v>
+        <v>8560</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>16045</v>
+        <v>16641</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26614</v>
+        <v>26556</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21573</v>
+        <v>19675</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15228</v>
+        <v>14980</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23127</v>
+        <v>24179</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30946</v>
+        <v>30899</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10898</v>
+        <v>10559</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>17091</v>
+        <v>16857</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>19896</v>
+        <v>20371</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>52349</v>
+        <v>51084</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>25719</v>
+        <v>25536</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>26761</v>
+        <v>26116</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>38072</v>
+        <v>36845</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>78087</v>
+        <v>78236</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>42715</v>
+        <v>42671</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>33553</v>
+        <v>33648</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>26736</v>
+        <v>26360</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>134148</v>
+        <v>135364</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>45201</v>
+        <v>43681</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>59592</v>
+        <v>59878</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>37100</v>
+        <v>36256</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>226357</v>
+        <v>225176</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>93859</v>
+        <v>93350</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>99141</v>
+        <v>98153</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>69259</v>
+        <v>69349</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>116517</v>
+        <v>119001</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>77069</v>
+        <v>74268</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>63452</v>
+        <v>60493</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>52127</v>
+        <v>53366</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>186030</v>
+        <v>185064</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>76329</v>
+        <v>73702</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>94920</v>
+        <v>94875</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>60036</v>
+        <v>59728</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>288104</v>
+        <v>286481</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>137614</v>
+        <v>139077</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>149095</v>
+        <v>145189</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>104489</v>
+        <v>105409</v>
       </c>
     </row>
     <row r="20">
